--- a/src/test/java/com/pack/testData/LaborStructure_Assignments.xlsx
+++ b/src/test/java/com/pack/testData/LaborStructure_Assignments.xlsx
@@ -105,6 +105,51 @@
   </si>
   <si>
     <t>Auto Div4</t>
+  </si>
+  <si>
+    <t>PartnerSelectorURL</t>
+  </si>
+  <si>
+    <t>PartnerCode</t>
+  </si>
+  <si>
+    <t>UserLoginID</t>
+  </si>
+  <si>
+    <t>UserPassword</t>
+  </si>
+  <si>
+    <t>DataBaseModel</t>
+  </si>
+  <si>
+    <t>DatabaseName</t>
+  </si>
+  <si>
+    <t>PropertyName</t>
+  </si>
+  <si>
+    <t>DataBaseModel1</t>
+  </si>
+  <si>
+    <t>https://qa-partnerselector.unifocus.com/</t>
+  </si>
+  <si>
+    <t>masterqa</t>
+  </si>
+  <si>
+    <t>tmobmas1</t>
+  </si>
+  <si>
+    <t>Q@testing123</t>
+  </si>
+  <si>
+    <t>RMS Modern</t>
+  </si>
+  <si>
+    <t>QA Butterscotch Master</t>
+  </si>
+  <si>
+    <t>Chicago</t>
   </si>
 </sst>
 </file>
@@ -459,123 +504,182 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2" activeCellId="0"/>
+      <selection activeCell="F15" sqref="F15" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.2852" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6328" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="11.1797" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" width="10.8164" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" width="12.7266" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" width="13.9062" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" width="20.6328" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" width="13" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" width="14.9062" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.2852" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="C2">
+      <c r="K2">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="F2">
+      <c r="N2">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
         <v>18</v>
       </c>
-      <c r="I2">
+      <c r="Q2">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="R2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="S2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="T2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="U2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
+      <c r="V2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
+      <c r="W2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" display="koshika@gmail.com" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>